--- a/region2017/layers_whi/data_layers_table_wh.xlsx
+++ b/region2017/layers_whi/data_layers_table_wh.xlsx
@@ -1267,8 +1267,9 @@
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="47.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
